--- a/Giuseppe/project 7/lab7.xlsx
+++ b/Giuseppe/project 7/lab7.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe\Documents\.magistrale\secondo anno\Process\Final\project 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B9533B-FCD5-4410-B3E9-3ED78A7806FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE97E13C-4511-4128-960A-69F69B66F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CC968D40-8D73-4513-8CAD-F2CD20CF277A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{CC968D40-8D73-4513-8CAD-F2CD20CF277A}"/>
   </bookViews>
   <sheets>
     <sheet name="Etanolo" sheetId="1" r:id="rId1"/>
+    <sheet name="Ethanolo In solvent" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="35">
   <si>
     <t>Isotropic</t>
   </si>
@@ -135,6 +136,12 @@
   </si>
   <si>
     <t>B3LYP/aug-cc-pVTZ</t>
+  </si>
+  <si>
+    <t>(cluster cineca)</t>
+  </si>
+  <si>
+    <t>PCM</t>
   </si>
 </sst>
 </file>
@@ -417,7 +424,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,6 +618,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Colore 4" xfId="3" builtinId="43"/>
@@ -1016,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43869CF-A1F9-42A1-ADFF-BDF60E5BA9D6}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,6 +1549,9 @@
       <c r="B42" s="61" t="s">
         <v>32</v>
       </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,4 +1925,833 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E3AFA7-EF6D-4007-A8A2-0569DE7CDDC5}">
+  <dimension ref="A1:F79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16">
+        <v>405.51929999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16">
+        <v>193.30119999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="28">
+        <v>31.638400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="30">
+        <v>31.638999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="30">
+        <v>31.638999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16">
+        <v>193.25550000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="28">
+        <v>31.641100000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="30">
+        <v>31.639399999999998</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="32">
+        <v>31.642399999999999</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="16">
+        <v>193.25550000000001</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="28">
+        <v>31.641100000000002</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="30">
+        <v>31.642399999999999</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="32">
+        <v>31.639399999999998</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="16">
+        <v>193.2439</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="28">
+        <v>31.644200000000001</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="30">
+        <v>31.639800000000001</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="32">
+        <v>31.639800000000001</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="34">
+        <f>AVERAGE(B7:B9,B11,B12,B13,B15,B16,B17,B19:B21)</f>
+        <v>31.640499999999999</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="35">
+        <f>VAR(B7:B9,B11:B13,B15:B17,B19:B21)</f>
+        <v>3.0854545454552782E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="36"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="21">
+        <v>131.33920000000001</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="21">
+        <v>174.61490000000001</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="45">
+        <v>27.748200000000001</v>
+      </c>
+      <c r="C32" s="46">
+        <f>ABS(B32-$B$23)</f>
+        <v>3.8922999999999988</v>
+      </c>
+      <c r="D32" s="47">
+        <v>3.69</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="48">
+        <v>27.749700000000001</v>
+      </c>
+      <c r="C33" s="49">
+        <f>ABS(B33-$B$23)</f>
+        <v>3.8907999999999987</v>
+      </c>
+      <c r="D33" s="50">
+        <v>3.69</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="51">
+        <v>30.374700000000001</v>
+      </c>
+      <c r="C34" s="52">
+        <f>ABS(B34-$B$23)</f>
+        <v>1.2657999999999987</v>
+      </c>
+      <c r="D34" s="53">
+        <v>1.26</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="54">
+        <v>30.560600000000001</v>
+      </c>
+      <c r="C35" s="55">
+        <f>ABS(B35-$B$23)</f>
+        <v>1.0798999999999985</v>
+      </c>
+      <c r="D35" s="56">
+        <v>1.26</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="57">
+        <v>30.372599999999998</v>
+      </c>
+      <c r="C36" s="58">
+        <f>ABS(B36-$B$23)</f>
+        <v>1.2679000000000009</v>
+      </c>
+      <c r="D36" s="59">
+        <v>1.26</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="21">
+        <v>296.04180000000002</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="60">
+        <v>30.440100000000001</v>
+      </c>
+      <c r="C38" s="40">
+        <f>ABS(B38-$B$23)</f>
+        <v>1.2003999999999984</v>
+      </c>
+      <c r="D38" s="41">
+        <v>2.61</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B42" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="16">
+        <v>405.51929999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="16">
+        <v>193.30119999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="28">
+        <v>31.638400000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="30">
+        <v>31.638999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="30">
+        <v>31.638999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="16">
+        <v>193.25550000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="28">
+        <v>31.641100000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="30">
+        <v>31.639399999999998</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="32">
+        <v>31.642399999999999</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="16">
+        <v>193.25550000000001</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="28">
+        <v>31.641100000000002</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="30">
+        <v>31.642399999999999</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="32">
+        <v>31.639399999999998</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="16">
+        <v>193.2439</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="28">
+        <v>31.644200000000001</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="30">
+        <v>31.639800000000001</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="32">
+        <v>31.639800000000001</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="18"/>
+      <c r="B63" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="17"/>
+      <c r="B64" s="34">
+        <f>AVERAGE(B48:B50,B52,B53,B54,B56,B57,B58,B60:B62)</f>
+        <v>31.640499999999999</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="35">
+        <f>VAR(B48:B50,B52:B54,B56:B58,B60:B62)</f>
+        <v>3.0854545454552782E-6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="19"/>
+      <c r="B69" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="14"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="10"/>
+      <c r="B70" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="36"/>
+      <c r="D70" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="36"/>
+      <c r="F70" s="14"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="21">
+        <v>131.33920000000001</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="14"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="21">
+        <v>174.61490000000001</v>
+      </c>
+      <c r="C72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="14"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="45">
+        <v>27.748200000000001</v>
+      </c>
+      <c r="C73" s="46">
+        <f>ABS(B73-$B$23)</f>
+        <v>3.8922999999999988</v>
+      </c>
+      <c r="D73" s="47">
+        <v>3.69</v>
+      </c>
+      <c r="E73" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="14"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="48">
+        <v>27.749700000000001</v>
+      </c>
+      <c r="C74" s="49">
+        <f>ABS(B74-$B$23)</f>
+        <v>3.8907999999999987</v>
+      </c>
+      <c r="D74" s="50">
+        <v>3.69</v>
+      </c>
+      <c r="E74" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="14"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="51">
+        <v>30.374700000000001</v>
+      </c>
+      <c r="C75" s="52">
+        <f>ABS(B75-$B$23)</f>
+        <v>1.2657999999999987</v>
+      </c>
+      <c r="D75" s="53">
+        <v>1.26</v>
+      </c>
+      <c r="E75" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="54">
+        <v>30.560600000000001</v>
+      </c>
+      <c r="C76" s="55">
+        <f>ABS(B76-$B$23)</f>
+        <v>1.0798999999999985</v>
+      </c>
+      <c r="D76" s="56">
+        <v>1.26</v>
+      </c>
+      <c r="E76" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="57">
+        <v>30.372599999999998</v>
+      </c>
+      <c r="C77" s="58">
+        <f>ABS(B77-$B$23)</f>
+        <v>1.2679000000000009</v>
+      </c>
+      <c r="D77" s="59">
+        <v>1.26</v>
+      </c>
+      <c r="E77" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="21">
+        <v>296.04180000000002</v>
+      </c>
+      <c r="C78" s="25"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="14"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="60">
+        <v>30.440100000000001</v>
+      </c>
+      <c r="C79" s="40">
+        <f>ABS(B79-$B$23)</f>
+        <v>1.2003999999999984</v>
+      </c>
+      <c r="D79" s="41">
+        <v>2.61</v>
+      </c>
+      <c r="E79" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Giuseppe/project 7/lab7.xlsx
+++ b/Giuseppe/project 7/lab7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe\Documents\.magistrale\secondo anno\Process\Final\project 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE97E13C-4511-4128-960A-69F69B66F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D100F56-1996-4D97-BE09-C9D47CFE387A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{CC968D40-8D73-4513-8CAD-F2CD20CF277A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{CC968D40-8D73-4513-8CAD-F2CD20CF277A}"/>
   </bookViews>
   <sheets>
     <sheet name="Etanolo" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="43">
   <si>
     <t>Isotropic</t>
   </si>
@@ -142,6 +142,53 @@
   </si>
   <si>
     <t>PCM</t>
+  </si>
+  <si>
+    <t>deshielding</t>
+  </si>
+  <si>
+    <t>meno elettroni intorno al nucleo</t>
+  </si>
+  <si>
+    <t>più elettroni, gli elettroni creano i loro campi magnetici che schermano l'esterno</t>
+  </si>
+  <si>
+    <t>Da calcoli: shielding</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Consideration</t>
+  </si>
+  <si>
+    <t>Per modellare meglio le interazioni elettrostatiche e H-bond</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elettronegativo: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attrae elettroni a sé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Nota: è il motivo per cui CH2 ha meno elettroni. CH3 non è connesso invece a nessun gruppo elettronegativo</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -277,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -417,6 +464,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -424,7 +497,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,14 +523,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,9 +558,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,19 +670,90 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Colore 4" xfId="3" builtinId="43"/>
@@ -649,8 +784,8 @@
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4405312</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>174679</xdr:rowOff>
     </xdr:to>
@@ -1024,21 +1159,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43869CF-A1F9-42A1-ADFF-BDF60E5BA9D6}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.6">
+      <c r="B1" s="59" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="1"/>
@@ -1047,16 +1183,16 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="B3" s="18" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="1"/>
@@ -1065,9 +1201,9 @@
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="1"/>
@@ -1076,11 +1212,11 @@
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>405.9846</v>
       </c>
       <c r="G5" s="1"/>
@@ -1089,11 +1225,11 @@
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>192.6754</v>
       </c>
       <c r="G6" s="1"/>
@@ -1102,11 +1238,11 @@
       <c r="J6" s="5"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="25">
         <v>31.650300000000001</v>
       </c>
       <c r="G7" s="1"/>
@@ -1115,11 +1251,11 @@
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="27">
         <v>31.6509</v>
       </c>
       <c r="G8" s="1"/>
@@ -1128,11 +1264,11 @@
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="29">
         <v>31.6509</v>
       </c>
       <c r="G9" s="1"/>
@@ -1141,11 +1277,11 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>192.63509999999999</v>
       </c>
       <c r="G10" s="1"/>
@@ -1154,11 +1290,11 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="25">
         <v>31.6526</v>
       </c>
       <c r="G11" s="1"/>
@@ -1167,11 +1303,11 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="27">
         <v>31.651399999999999</v>
       </c>
       <c r="F12" s="4"/>
@@ -1181,11 +1317,11 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="29">
         <v>31.6539</v>
       </c>
       <c r="F13" s="1"/>
@@ -1195,11 +1331,11 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>192.63509999999999</v>
       </c>
       <c r="C14" s="1"/>
@@ -1212,11 +1348,11 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="25">
         <v>31.6526</v>
       </c>
       <c r="C15" s="1"/>
@@ -1229,11 +1365,11 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="27">
         <v>31.6539</v>
       </c>
       <c r="C16" s="1"/>
@@ -1246,11 +1382,11 @@
       <c r="J16" s="5"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="29">
         <v>31.651399999999999</v>
       </c>
       <c r="C17" s="1"/>
@@ -1263,11 +1399,11 @@
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>192.6198</v>
       </c>
       <c r="C18" s="1"/>
@@ -1280,11 +1416,11 @@
       <c r="J18" s="5"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="25">
         <v>31.6553</v>
       </c>
       <c r="C19" s="1"/>
@@ -1297,11 +1433,11 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="27">
         <v>31.651700000000002</v>
       </c>
       <c r="C20" s="1"/>
@@ -1314,11 +1450,11 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="29">
         <v>31.651700000000002</v>
       </c>
       <c r="C21" s="1"/>
@@ -1330,18 +1466,18 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="33" t="s">
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="16"/>
+      <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="34">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="15"/>
+      <c r="B23" s="31">
         <f>AVERAGE(B7:B9,B11,B12,B13,B15,B16,B17,B19:B21)</f>
         <v>31.652216666666671</v>
       </c>
@@ -1349,394 +1485,424 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="32">
         <f>VAR(B7:B9,B11:B13,B15:B17,B19:B21)</f>
         <v>2.2251515151512956E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="39" t="s">
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="17"/>
+      <c r="B28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="26" t="s">
+      <c r="F28" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="9"/>
+      <c r="B29" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="42" t="s">
+      <c r="C29" s="33"/>
+      <c r="D29" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="E29" s="33"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="67"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="19">
         <v>131.33920000000001</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="C30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="68"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="19">
         <v>174.61490000000001</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="68"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="42">
         <v>27.838200000000001</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="43">
         <f>ABS(B32-$B$23)</f>
         <v>3.8140166666666708</v>
       </c>
-      <c r="D32" s="47">
+      <c r="D32" s="44">
         <v>3.69</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="F32" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="48">
+      <c r="B33" s="45">
         <v>27.8398</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="46">
         <f>ABS(B33-$B$23)</f>
         <v>3.812416666666671</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="47">
         <v>3.69</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="F33" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="51">
+      <c r="B34" s="48">
         <v>30.263999999999999</v>
       </c>
-      <c r="C34" s="52">
+      <c r="C34" s="49">
         <f>ABS(B34-$B$23)</f>
         <v>1.388216666666672</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="50">
         <v>1.26</v>
       </c>
-      <c r="E34" s="52" t="s">
+      <c r="E34" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="69" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="G34" s="70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="54">
+      <c r="B35" s="51">
         <v>30.755400000000002</v>
       </c>
-      <c r="C35" s="55">
+      <c r="C35" s="52">
         <f>ABS(B35-$B$23)</f>
         <v>0.8968166666666697</v>
       </c>
-      <c r="D35" s="56">
+      <c r="D35" s="53">
         <v>1.26</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="71" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="G35" s="72"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="57">
+      <c r="B36" s="54">
         <v>30.263500000000001</v>
       </c>
-      <c r="C36" s="58">
+      <c r="C36" s="55">
         <f>ABS(B36-$B$23)</f>
         <v>1.3887166666666708</v>
       </c>
-      <c r="D36" s="59">
+      <c r="D36" s="56">
         <v>1.26</v>
       </c>
-      <c r="E36" s="58" t="s">
+      <c r="E36" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="73" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="G36" s="74"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="19">
         <v>296.04180000000002</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="C37" s="22"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="68"/>
+    </row>
+    <row r="38" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="60">
+      <c r="B38" s="57">
         <v>31.2668</v>
       </c>
-      <c r="C38" s="40">
+      <c r="C38" s="75">
         <f>ABS(B38-$B$23)</f>
         <v>0.3854166666666714</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="76">
         <v>2.61</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B42" s="61" t="s">
+      <c r="F38" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="78" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="62"/>
+    </row>
+    <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="58" t="s">
         <v>32</v>
       </c>
       <c r="C42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="20" t="s">
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="10"/>
+      <c r="B45" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="26" t="s">
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="11"/>
+      <c r="B46" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="14">
         <v>332.04950000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="44" t="s">
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="14">
         <v>185.5085</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="25">
         <v>31.7239</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="30">
+      <c r="B50" s="27">
         <v>31.729500000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="31" t="s">
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="32">
+      <c r="B51" s="29">
         <v>31.729500000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="14">
         <v>185.21610000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="27" t="s">
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="28">
+      <c r="B53" s="25">
         <v>31.736499999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="28">
+      <c r="B54" s="25">
         <v>31.736499999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="31" t="s">
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="29">
         <v>31.732900000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="14">
         <v>185.21600000000001</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="28">
+      <c r="B57" s="25">
         <v>31.736499999999999</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="30">
+      <c r="B58" s="27">
         <v>31.732900000000001</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="31" t="s">
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="32">
+      <c r="B59" s="29">
         <v>31.735600000000002</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="14">
         <v>185.17959999999999</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="28">
+      <c r="B61" s="25">
         <v>31.735700000000001</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="30">
+      <c r="B62" s="27">
         <v>31.732099999999999</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="31" t="s">
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="30">
+      <c r="B63" s="27">
         <v>31.732099999999999</v>
       </c>
       <c r="C63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="33" t="s">
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="16"/>
+      <c r="B64" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="34">
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="15"/>
+      <c r="B65" s="31">
         <f>AVERAGE(B49:B51,B53,B54,B55,B57,B58,B59,B61:B63)</f>
         <v>31.732808333333335</v>
       </c>
@@ -1744,180 +1910,180 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B66" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B67" s="32">
         <f>VAR(B49:B51,B53:B55,B57:B59,B61:B63)</f>
         <v>1.4482651515149645E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="19"/>
-      <c r="B70" s="39" t="s">
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="70" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="17"/>
+      <c r="B70" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C70" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="37" t="s">
+      <c r="D70" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E70" s="38" t="s">
+      <c r="E70" s="35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="10"/>
-      <c r="B71" s="26" t="s">
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="9"/>
+      <c r="B71" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="36"/>
-      <c r="D71" s="42" t="s">
+      <c r="C71" s="33"/>
+      <c r="D71" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="36"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
+      <c r="E71" s="33"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="21">
+      <c r="B72" s="19">
         <v>119.6743</v>
       </c>
-      <c r="C72" s="22"/>
-      <c r="E72" s="22"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
+      <c r="C72" s="20"/>
+      <c r="E72" s="20"/>
+    </row>
+    <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="21">
+      <c r="B73" s="19">
         <v>162.9</v>
       </c>
-      <c r="C73" s="22"/>
-      <c r="E73" s="22"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="20"/>
+      <c r="E73" s="20"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="63">
+      <c r="B74" s="88">
         <v>28.114999999999998</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="43">
         <f>ABS(B74-$B$65)</f>
         <v>3.6178083333333362</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="44">
         <v>3.69</v>
       </c>
-      <c r="E74" s="23" t="s">
+      <c r="E74" s="43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
+    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="64">
+      <c r="B75" s="89">
         <v>27.795500000000001</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="46">
         <f t="shared" ref="C75:C78" si="0">ABS(B75-$B$65)</f>
         <v>3.9373083333333341</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="47">
         <v>3.69</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="46" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="63">
+      <c r="B76" s="79">
         <v>30.754799999999999</v>
       </c>
-      <c r="C76" s="23">
+      <c r="C76" s="80">
         <f t="shared" si="0"/>
         <v>0.97800833333333514</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="81">
         <v>1.26</v>
       </c>
-      <c r="E76" s="23" t="s">
+      <c r="E76" s="80" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="65">
+      <c r="B77" s="82">
         <v>30.542200000000001</v>
       </c>
-      <c r="C77" s="25">
+      <c r="C77" s="83">
         <f t="shared" si="0"/>
         <v>1.1906083333333335</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="84">
         <v>1.26</v>
       </c>
-      <c r="E77" s="25" t="s">
+      <c r="E77" s="83" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="10" t="s">
+    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="64">
+      <c r="B78" s="85">
         <v>30.33</v>
       </c>
-      <c r="C78" s="25">
+      <c r="C78" s="83">
         <f t="shared" si="0"/>
         <v>1.4028083333333363</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="86">
         <v>1.26</v>
       </c>
-      <c r="E78" s="24" t="s">
+      <c r="E78" s="87" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="66">
+      <c r="B79" s="60">
         <v>275.90350000000001</v>
       </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="25"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
+      <c r="C79" s="21"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="22"/>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="64">
+      <c r="B80" s="37">
         <v>31.758199999999999</v>
       </c>
-      <c r="C80" s="40">
+      <c r="C80" s="37">
         <f>ABS(B80-$B$65)</f>
         <v>2.5391666666664037E-2</v>
       </c>
-      <c r="D80" s="41">
+      <c r="D80" s="38">
         <v>2.61</v>
       </c>
-      <c r="E80" s="40" t="s">
+      <c r="E80" s="37" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1931,116 +2097,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E3AFA7-EF6D-4007-A8A2-0569DE7CDDC5}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.6">
+      <c r="B1" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="61" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="20" t="s">
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="B3" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>405.51929999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>193.30119999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="25">
         <v>31.638400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="27">
         <v>31.638999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="27">
         <v>31.638999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>193.25550000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="25">
         <v>31.641100000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="27">
         <v>31.639399999999998</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="29">
         <v>31.642399999999999</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>193.25550000000001</v>
       </c>
       <c r="C14" s="1"/>
@@ -2048,11 +2217,11 @@
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="25">
         <v>31.641100000000002</v>
       </c>
       <c r="C15" s="1"/>
@@ -2060,11 +2229,11 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="27">
         <v>31.642399999999999</v>
       </c>
       <c r="C16" s="1"/>
@@ -2072,11 +2241,11 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="29">
         <v>31.639399999999998</v>
       </c>
       <c r="C17" s="1"/>
@@ -2084,11 +2253,11 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>193.2439</v>
       </c>
       <c r="C18" s="1"/>
@@ -2096,11 +2265,11 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="25">
         <v>31.644200000000001</v>
       </c>
       <c r="C19" s="1"/>
@@ -2108,11 +2277,11 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="27">
         <v>31.639800000000001</v>
       </c>
       <c r="C20" s="1"/>
@@ -2120,29 +2289,29 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="29">
         <v>31.639800000000001</v>
       </c>
       <c r="C21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="33" t="s">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="16"/>
+      <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="34">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="15"/>
+      <c r="B23" s="31">
         <f>AVERAGE(B7:B9,B11,B12,B13,B15,B16,B17,B19:B21)</f>
         <v>31.640499999999999</v>
       </c>
@@ -2150,302 +2319,302 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="32">
         <f>VAR(B7:B9,B11:B13,B15:B17,B19:B21)</f>
         <v>3.0854545454552782E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="39" t="s">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="17"/>
+      <c r="B28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="26" t="s">
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="9"/>
+      <c r="B29" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="42" t="s">
+      <c r="C29" s="33"/>
+      <c r="D29" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="E29" s="33"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="19">
         <v>131.33920000000001</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="C30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="19">
         <v>174.61490000000001</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="42">
         <v>27.748200000000001</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="43">
         <f>ABS(B32-$B$23)</f>
         <v>3.8922999999999988</v>
       </c>
-      <c r="D32" s="47">
+      <c r="D32" s="44">
         <v>3.69</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="48">
+      <c r="B33" s="45">
         <v>27.749700000000001</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="46">
         <f>ABS(B33-$B$23)</f>
         <v>3.8907999999999987</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="47">
         <v>3.69</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="51">
+      <c r="B34" s="48">
         <v>30.374700000000001</v>
       </c>
-      <c r="C34" s="52">
+      <c r="C34" s="49">
         <f>ABS(B34-$B$23)</f>
         <v>1.2657999999999987</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="50">
         <v>1.26</v>
       </c>
-      <c r="E34" s="52" t="s">
+      <c r="E34" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="54">
+      <c r="B35" s="51">
         <v>30.560600000000001</v>
       </c>
-      <c r="C35" s="55">
+      <c r="C35" s="52">
         <f>ABS(B35-$B$23)</f>
         <v>1.0798999999999985</v>
       </c>
-      <c r="D35" s="56">
+      <c r="D35" s="53">
         <v>1.26</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="57">
+      <c r="B36" s="54">
         <v>30.372599999999998</v>
       </c>
-      <c r="C36" s="58">
+      <c r="C36" s="55">
         <f>ABS(B36-$B$23)</f>
         <v>1.2679000000000009</v>
       </c>
-      <c r="D36" s="59">
+      <c r="D36" s="56">
         <v>1.26</v>
       </c>
-      <c r="E36" s="58" t="s">
+      <c r="E36" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="19">
         <v>296.04180000000002</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="C37" s="22"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="60">
+      <c r="B38" s="57">
         <v>30.440100000000001</v>
       </c>
-      <c r="C38" s="40">
+      <c r="C38" s="37">
         <f>ABS(B38-$B$23)</f>
         <v>1.2003999999999984</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="38">
         <v>2.61</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B42" s="62" t="s">
+    <row r="42" spans="1:6" ht="26" x14ac:dyDescent="0.6">
+      <c r="B42" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="C42" s="61" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="20" t="s">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="10"/>
+      <c r="B44" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="26" t="s">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="11"/>
+      <c r="B45" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="14">
         <v>405.51929999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="44" t="s">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="14">
         <v>193.30119999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="25">
         <v>31.638400000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B49" s="27">
         <v>31.638999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="31" t="s">
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="30">
+      <c r="B50" s="27">
         <v>31.638999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="14">
         <v>193.25550000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="28">
+      <c r="B52" s="25">
         <v>31.641100000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="30">
+      <c r="B53" s="27">
         <v>31.639399999999998</v>
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="31" t="s">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="32">
+      <c r="B54" s="29">
         <v>31.642399999999999</v>
       </c>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="14">
         <v>193.25550000000001</v>
       </c>
       <c r="C55" s="1"/>
@@ -2453,11 +2622,11 @@
       <c r="E55" s="7"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="28">
+      <c r="B56" s="25">
         <v>31.641100000000002</v>
       </c>
       <c r="C56" s="1"/>
@@ -2465,11 +2634,11 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="30">
+      <c r="B57" s="27">
         <v>31.642399999999999</v>
       </c>
       <c r="C57" s="1"/>
@@ -2477,11 +2646,11 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="32">
+      <c r="B58" s="29">
         <v>31.639399999999998</v>
       </c>
       <c r="C58" s="1"/>
@@ -2489,11 +2658,11 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="14">
         <v>193.2439</v>
       </c>
       <c r="C59" s="1"/>
@@ -2501,11 +2670,11 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B60" s="28">
+      <c r="B60" s="25">
         <v>31.644200000000001</v>
       </c>
       <c r="C60" s="1"/>
@@ -2513,11 +2682,11 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="30">
+      <c r="B61" s="27">
         <v>31.639800000000001</v>
       </c>
       <c r="C61" s="1"/>
@@ -2525,29 +2694,29 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="31" t="s">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="32">
+      <c r="B62" s="29">
         <v>31.639800000000001</v>
       </c>
       <c r="C62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="33" t="s">
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="16"/>
+      <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="34">
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="15"/>
+      <c r="B64" s="31">
         <f>AVERAGE(B48:B50,B52,B53,B54,B56,B57,B58,B60:B62)</f>
         <v>31.640499999999999</v>
       </c>
@@ -2555,199 +2724,199 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B66" s="32">
         <f>VAR(B48:B50,B52:B54,B56:B58,B60:B62)</f>
         <v>3.0854545454552782E-6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="39" t="s">
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="69" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="17"/>
+      <c r="B69" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="37" t="s">
+      <c r="C69" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="37" t="s">
+      <c r="D69" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="38" t="s">
+      <c r="E69" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F69" s="14"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="10"/>
-      <c r="B70" s="26" t="s">
+      <c r="F69" s="12"/>
+    </row>
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="9"/>
+      <c r="B70" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="36"/>
-      <c r="D70" s="42" t="s">
+      <c r="C70" s="33"/>
+      <c r="D70" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="36"/>
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+      <c r="E70" s="33"/>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="21">
+      <c r="B71" s="19">
         <v>131.33920000000001</v>
       </c>
-      <c r="C71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="14"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
+      <c r="C71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="21">
+      <c r="B72" s="19">
         <v>174.61490000000001</v>
       </c>
-      <c r="C72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="14"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="45">
+      <c r="B73" s="42">
         <v>27.748200000000001</v>
       </c>
-      <c r="C73" s="46">
+      <c r="C73" s="43">
         <f>ABS(B73-$B$23)</f>
         <v>3.8922999999999988</v>
       </c>
-      <c r="D73" s="47">
+      <c r="D73" s="44">
         <v>3.69</v>
       </c>
-      <c r="E73" s="46" t="s">
+      <c r="E73" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F73" s="14"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="48">
+      <c r="B74" s="45">
         <v>27.749700000000001</v>
       </c>
-      <c r="C74" s="49">
+      <c r="C74" s="46">
         <f>ABS(B74-$B$23)</f>
         <v>3.8907999999999987</v>
       </c>
-      <c r="D74" s="50">
+      <c r="D74" s="47">
         <v>3.69</v>
       </c>
-      <c r="E74" s="49" t="s">
+      <c r="E74" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="14"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="51">
+      <c r="B75" s="48">
         <v>30.374700000000001</v>
       </c>
-      <c r="C75" s="52">
+      <c r="C75" s="49">
         <f>ABS(B75-$B$23)</f>
         <v>1.2657999999999987</v>
       </c>
-      <c r="D75" s="53">
+      <c r="D75" s="50">
         <v>1.26</v>
       </c>
-      <c r="E75" s="52" t="s">
+      <c r="E75" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="F75" s="14" t="s">
+      <c r="F75" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="54">
+      <c r="B76" s="51">
         <v>30.560600000000001</v>
       </c>
-      <c r="C76" s="55">
+      <c r="C76" s="52">
         <f>ABS(B76-$B$23)</f>
         <v>1.0798999999999985</v>
       </c>
-      <c r="D76" s="56">
+      <c r="D76" s="53">
         <v>1.26</v>
       </c>
-      <c r="E76" s="55" t="s">
+      <c r="E76" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F76" s="14" t="s">
+      <c r="F76" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="10" t="s">
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="57">
+      <c r="B77" s="54">
         <v>30.372599999999998</v>
       </c>
-      <c r="C77" s="58">
+      <c r="C77" s="55">
         <f>ABS(B77-$B$23)</f>
         <v>1.2679000000000009</v>
       </c>
-      <c r="D77" s="59">
+      <c r="D77" s="56">
         <v>1.26</v>
       </c>
-      <c r="E77" s="58" t="s">
+      <c r="E77" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="14" t="s">
+      <c r="F77" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="21">
+      <c r="B78" s="19">
         <v>296.04180000000002</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="14"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
+      <c r="C78" s="22"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="12"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="60">
+      <c r="B79" s="57">
         <v>30.440100000000001</v>
       </c>
-      <c r="C79" s="40">
+      <c r="C79" s="37">
         <f>ABS(B79-$B$23)</f>
         <v>1.2003999999999984</v>
       </c>
-      <c r="D79" s="41">
+      <c r="D79" s="38">
         <v>2.61</v>
       </c>
-      <c r="E79" s="40" t="s">
+      <c r="E79" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F79" s="12" t="s">
         <v>31</v>
       </c>
     </row>
